--- a/cross_analysis/toxicity.xlsx
+++ b/cross_analysis/toxicity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive\Desktop\rbda-ml-inference\rbda-ml-inference\cross_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B855226-738E-4041-B969-50E7F7ACB43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ECA256-DA65-4023-A104-8D90910F6B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="16140" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -97,7 +97,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,7 +381,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -548,46 +548,34 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>3.19E-4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>8.8999999999999995E-5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>5.3225000000000001E-2</v>
+        <v>6.6073999999999994E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>3.3700000000000001E-4</v>
+        <v>4.1899999999999999E-4</v>
       </c>
       <c r="D3" s="2">
-        <v>2.8986000000000001E-2</v>
+        <v>3.5983000000000001E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>7.9900000000000001E-4</v>
+        <v>9.9200000000000004E-4</v>
       </c>
       <c r="F3" s="2">
-        <v>1.2526000000000001E-2</v>
+        <v>1.5549E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>2.2929999999999999E-3</v>
+        <v>2.8470000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -617,24 +605,12 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.237599</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.24E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.17028299999999999</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3.3089999999999999E-3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5.8613999999999999E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4.3860000000000001E-3</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
